--- a/natmiOut/OldD7/LR-pairs_lrc2p/C3-Cd46.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/C3-Cd46.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.470138041467683</v>
+        <v>1.558564</v>
       </c>
       <c r="H2">
-        <v>0.470138041467683</v>
+        <v>4.675692</v>
       </c>
       <c r="I2">
-        <v>0.001779278815664694</v>
+        <v>0.005692101168584756</v>
       </c>
       <c r="J2">
-        <v>0.001779278815664694</v>
+        <v>0.005692101168584756</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.25600522776416</v>
+        <v>5.397241999999999</v>
       </c>
       <c r="N2">
-        <v>5.25600522776416</v>
+        <v>16.191726</v>
       </c>
       <c r="O2">
-        <v>0.4626153523136182</v>
+        <v>0.4331003391330405</v>
       </c>
       <c r="P2">
-        <v>0.4626153523136182</v>
+        <v>0.4331003391330406</v>
       </c>
       <c r="Q2">
-        <v>2.471048003724945</v>
+        <v>8.411947080487998</v>
       </c>
       <c r="R2">
-        <v>2.471048003724945</v>
+        <v>75.70752372439199</v>
       </c>
       <c r="S2">
-        <v>0.0008231216961728798</v>
+        <v>0.002465250946493634</v>
       </c>
       <c r="T2">
-        <v>0.0008231216961728798</v>
+        <v>0.002465250946493634</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.470138041467683</v>
+        <v>1.558564</v>
       </c>
       <c r="H3">
-        <v>0.470138041467683</v>
+        <v>4.675692</v>
       </c>
       <c r="I3">
-        <v>0.001779278815664694</v>
+        <v>0.005692101168584756</v>
       </c>
       <c r="J3">
-        <v>0.001779278815664694</v>
+        <v>0.005692101168584756</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.37057035224949</v>
+        <v>4.372979</v>
       </c>
       <c r="N3">
-        <v>4.37057035224949</v>
+        <v>13.118937</v>
       </c>
       <c r="O3">
-        <v>0.3846824452603219</v>
+        <v>0.3509086099755513</v>
       </c>
       <c r="P3">
-        <v>0.3846824452603219</v>
+        <v>0.3509086099755513</v>
       </c>
       <c r="Q3">
-        <v>2.054771385503297</v>
+        <v>6.815567642155999</v>
       </c>
       <c r="R3">
-        <v>2.054771385503297</v>
+        <v>61.34010877940399</v>
       </c>
       <c r="S3">
-        <v>0.0006844573256097841</v>
+        <v>0.001997407308908288</v>
       </c>
       <c r="T3">
-        <v>0.0006844573256097841</v>
+        <v>0.001997407308908288</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.470138041467683</v>
+        <v>1.558564</v>
       </c>
       <c r="H4">
-        <v>0.470138041467683</v>
+        <v>4.675692</v>
       </c>
       <c r="I4">
-        <v>0.001779278815664694</v>
+        <v>0.005692101168584756</v>
       </c>
       <c r="J4">
-        <v>0.001779278815664694</v>
+        <v>0.005692101168584756</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.519775026349899</v>
+        <v>0.59901</v>
       </c>
       <c r="N4">
-        <v>0.519775026349899</v>
+        <v>1.79703</v>
       </c>
       <c r="O4">
-        <v>0.04574879523873034</v>
+        <v>0.04806740815847847</v>
       </c>
       <c r="P4">
-        <v>0.04574879523873034</v>
+        <v>0.04806740815847847</v>
       </c>
       <c r="Q4">
-        <v>0.2443660128919549</v>
+        <v>0.93359542164</v>
       </c>
       <c r="R4">
-        <v>0.2443660128919549</v>
+        <v>8.40235879476</v>
       </c>
       <c r="S4">
-        <v>8.139986221045471E-05</v>
+        <v>0.0002736045501497157</v>
       </c>
       <c r="T4">
-        <v>8.139986221045471E-05</v>
+        <v>0.0002736045501497158</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.470138041467683</v>
+        <v>1.558564</v>
       </c>
       <c r="H5">
-        <v>0.470138041467683</v>
+        <v>4.675692</v>
       </c>
       <c r="I5">
-        <v>0.001779278815664694</v>
+        <v>0.005692101168584756</v>
       </c>
       <c r="J5">
-        <v>0.001779278815664694</v>
+        <v>0.005692101168584756</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.21515134439961</v>
+        <v>2.092643333333333</v>
       </c>
       <c r="N5">
-        <v>1.21515134439961</v>
+        <v>6.27793</v>
       </c>
       <c r="O5">
-        <v>0.1069534071873294</v>
+        <v>0.1679236427329297</v>
       </c>
       <c r="P5">
-        <v>0.1069534071873294</v>
+        <v>0.1679236427329297</v>
       </c>
       <c r="Q5">
-        <v>0.5712888731428546</v>
+        <v>3.261518564173333</v>
       </c>
       <c r="R5">
-        <v>0.5712888731428546</v>
+        <v>29.35366707756</v>
       </c>
       <c r="S5">
-        <v>0.0001902999316715753</v>
+        <v>0.0009558383630331184</v>
       </c>
       <c r="T5">
-        <v>0.0001902999316715753</v>
+        <v>0.0009558383630331184</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>252.361879689836</v>
+        <v>259.5505726666667</v>
       </c>
       <c r="H6">
-        <v>252.361879689836</v>
+        <v>778.6517180000001</v>
       </c>
       <c r="I6">
-        <v>0.9550857552638886</v>
+        <v>0.9479162344201305</v>
       </c>
       <c r="J6">
-        <v>0.9550857552638886</v>
+        <v>0.9479162344201304</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.25600522776416</v>
+        <v>5.397241999999999</v>
       </c>
       <c r="N6">
-        <v>5.25600522776416</v>
+        <v>16.191726</v>
       </c>
       <c r="O6">
-        <v>0.4626153523136182</v>
+        <v>0.4331003391330405</v>
       </c>
       <c r="P6">
-        <v>0.4626153523136182</v>
+        <v>0.4331003391330406</v>
       </c>
       <c r="Q6">
-        <v>1326.415358938168</v>
+        <v>1400.857251920585</v>
       </c>
       <c r="R6">
-        <v>1326.415358938168</v>
+        <v>12607.71526728527</v>
       </c>
       <c r="S6">
-        <v>0.441837333161122</v>
+        <v>0.4105428425970732</v>
       </c>
       <c r="T6">
-        <v>0.441837333161122</v>
+        <v>0.4105428425970732</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>252.361879689836</v>
+        <v>259.5505726666667</v>
       </c>
       <c r="H7">
-        <v>252.361879689836</v>
+        <v>778.6517180000001</v>
       </c>
       <c r="I7">
-        <v>0.9550857552638886</v>
+        <v>0.9479162344201305</v>
       </c>
       <c r="J7">
-        <v>0.9550857552638886</v>
+        <v>0.9479162344201304</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.37057035224949</v>
+        <v>4.372979</v>
       </c>
       <c r="N7">
-        <v>4.37057035224949</v>
+        <v>13.118937</v>
       </c>
       <c r="O7">
-        <v>0.3846824452603219</v>
+        <v>0.3509086099755513</v>
       </c>
       <c r="P7">
-        <v>0.3846824452603219</v>
+        <v>0.3509086099755513</v>
       </c>
       <c r="Q7">
-        <v>1102.96534941035</v>
+        <v>1135.009203709307</v>
       </c>
       <c r="R7">
-        <v>1102.96534941035</v>
+        <v>10215.08283338377</v>
       </c>
       <c r="S7">
-        <v>0.367404723768214</v>
+        <v>0.3326319681936269</v>
       </c>
       <c r="T7">
-        <v>0.367404723768214</v>
+        <v>0.3326319681936268</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>252.361879689836</v>
+        <v>259.5505726666667</v>
       </c>
       <c r="H8">
-        <v>252.361879689836</v>
+        <v>778.6517180000001</v>
       </c>
       <c r="I8">
-        <v>0.9550857552638886</v>
+        <v>0.9479162344201305</v>
       </c>
       <c r="J8">
-        <v>0.9550857552638886</v>
+        <v>0.9479162344201304</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.519775026349899</v>
+        <v>0.59901</v>
       </c>
       <c r="N8">
-        <v>0.519775026349899</v>
+        <v>1.79703</v>
       </c>
       <c r="O8">
-        <v>0.04574879523873034</v>
+        <v>0.04806740815847847</v>
       </c>
       <c r="P8">
-        <v>0.04574879523873034</v>
+        <v>0.04806740815847847</v>
       </c>
       <c r="Q8">
-        <v>131.1714026654946</v>
+        <v>155.47338853306</v>
       </c>
       <c r="R8">
-        <v>131.1714026654946</v>
+        <v>1399.26049679754</v>
       </c>
       <c r="S8">
-        <v>0.04369402265299575</v>
+        <v>0.04556387653992037</v>
       </c>
       <c r="T8">
-        <v>0.04369402265299575</v>
+        <v>0.04556387653992037</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>252.361879689836</v>
+        <v>259.5505726666667</v>
       </c>
       <c r="H9">
-        <v>252.361879689836</v>
+        <v>778.6517180000001</v>
       </c>
       <c r="I9">
-        <v>0.9550857552638886</v>
+        <v>0.9479162344201305</v>
       </c>
       <c r="J9">
-        <v>0.9550857552638886</v>
+        <v>0.9479162344201304</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.21515134439961</v>
+        <v>2.092643333333333</v>
       </c>
       <c r="N9">
-        <v>1.21515134439961</v>
+        <v>6.27793</v>
       </c>
       <c r="O9">
-        <v>0.1069534071873294</v>
+        <v>0.1679236427329297</v>
       </c>
       <c r="P9">
-        <v>0.1069534071873294</v>
+        <v>0.1679236427329297</v>
       </c>
       <c r="Q9">
-        <v>306.6578773803168</v>
+        <v>543.146775553749</v>
       </c>
       <c r="R9">
-        <v>306.6578773803168</v>
+        <v>4888.32097998374</v>
       </c>
       <c r="S9">
-        <v>0.1021496756815568</v>
+        <v>0.1591775470895101</v>
       </c>
       <c r="T9">
-        <v>0.1021496756815568</v>
+        <v>0.15917754708951</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.0635042290981</v>
+        <v>12.18925266666667</v>
       </c>
       <c r="H10">
-        <v>11.0635042290981</v>
+        <v>36.567758</v>
       </c>
       <c r="I10">
-        <v>0.04187080594541537</v>
+        <v>0.04451691386950307</v>
       </c>
       <c r="J10">
-        <v>0.04187080594541537</v>
+        <v>0.04451691386950307</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.25600522776416</v>
+        <v>5.397241999999999</v>
       </c>
       <c r="N10">
-        <v>5.25600522776416</v>
+        <v>16.191726</v>
       </c>
       <c r="O10">
-        <v>0.4626153523136182</v>
+        <v>0.4331003391330405</v>
       </c>
       <c r="P10">
-        <v>0.4626153523136182</v>
+        <v>0.4331003391330406</v>
       </c>
       <c r="Q10">
-        <v>58.14983606553051</v>
+        <v>65.78834644114532</v>
       </c>
       <c r="R10">
-        <v>58.14983606553051</v>
+        <v>592.0951179703079</v>
       </c>
       <c r="S10">
-        <v>0.01937007764409348</v>
+        <v>0.01928029049403814</v>
       </c>
       <c r="T10">
-        <v>0.01937007764409348</v>
+        <v>0.01928029049403814</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>11.0635042290981</v>
+        <v>12.18925266666667</v>
       </c>
       <c r="H11">
-        <v>11.0635042290981</v>
+        <v>36.567758</v>
       </c>
       <c r="I11">
-        <v>0.04187080594541537</v>
+        <v>0.04451691386950307</v>
       </c>
       <c r="J11">
-        <v>0.04187080594541537</v>
+        <v>0.04451691386950307</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.37057035224949</v>
+        <v>4.372979</v>
       </c>
       <c r="N11">
-        <v>4.37057035224949</v>
+        <v>13.118937</v>
       </c>
       <c r="O11">
-        <v>0.3846824452603219</v>
+        <v>0.3509086099755513</v>
       </c>
       <c r="P11">
-        <v>0.3846824452603219</v>
+        <v>0.3509086099755513</v>
       </c>
       <c r="Q11">
-        <v>48.35382357568301</v>
+        <v>53.30334593702733</v>
       </c>
       <c r="R11">
-        <v>48.35382357568301</v>
+        <v>479.7301134332459</v>
       </c>
       <c r="S11">
-        <v>0.01610696401610281</v>
+        <v>0.01562136836634867</v>
       </c>
       <c r="T11">
-        <v>0.01610696401610281</v>
+        <v>0.01562136836634866</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>11.0635042290981</v>
+        <v>12.18925266666667</v>
       </c>
       <c r="H12">
-        <v>11.0635042290981</v>
+        <v>36.567758</v>
       </c>
       <c r="I12">
-        <v>0.04187080594541537</v>
+        <v>0.04451691386950307</v>
       </c>
       <c r="J12">
-        <v>0.04187080594541537</v>
+        <v>0.04451691386950307</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.519775026349899</v>
+        <v>0.59901</v>
       </c>
       <c r="N12">
-        <v>0.519775026349899</v>
+        <v>1.79703</v>
       </c>
       <c r="O12">
-        <v>0.04574879523873034</v>
+        <v>0.04806740815847847</v>
       </c>
       <c r="P12">
-        <v>0.04574879523873034</v>
+        <v>0.04806740815847847</v>
       </c>
       <c r="Q12">
-        <v>5.750533202201685</v>
+        <v>7.301484239860001</v>
       </c>
       <c r="R12">
-        <v>5.750533202201685</v>
+        <v>65.71335815874001</v>
       </c>
       <c r="S12">
-        <v>0.001915538927677421</v>
+        <v>0.002139812668921235</v>
       </c>
       <c r="T12">
-        <v>0.001915538927677421</v>
+        <v>0.002139812668921235</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>11.0635042290981</v>
+        <v>12.18925266666667</v>
       </c>
       <c r="H13">
-        <v>11.0635042290981</v>
+        <v>36.567758</v>
       </c>
       <c r="I13">
-        <v>0.04187080594541537</v>
+        <v>0.04451691386950307</v>
       </c>
       <c r="J13">
-        <v>0.04187080594541537</v>
+        <v>0.04451691386950307</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.21515134439961</v>
+        <v>2.092643333333333</v>
       </c>
       <c r="N13">
-        <v>1.21515134439961</v>
+        <v>6.27793</v>
       </c>
       <c r="O13">
-        <v>0.1069534071873294</v>
+        <v>0.1679236427329297</v>
       </c>
       <c r="P13">
-        <v>0.1069534071873294</v>
+        <v>0.1679236427329297</v>
       </c>
       <c r="Q13">
-        <v>13.44383203775933</v>
+        <v>25.50775833121555</v>
       </c>
       <c r="R13">
-        <v>13.44383203775933</v>
+        <v>229.56982498094</v>
       </c>
       <c r="S13">
-        <v>0.004478225357541665</v>
+        <v>0.007475442340195038</v>
       </c>
       <c r="T13">
-        <v>0.004478225357541665</v>
+        <v>0.007475442340195038</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.334028421813718</v>
+        <v>0.5133286666666667</v>
       </c>
       <c r="H14">
-        <v>0.334028421813718</v>
+        <v>1.539986</v>
       </c>
       <c r="I14">
-        <v>0.001264159975031318</v>
+        <v>0.001874750541781658</v>
       </c>
       <c r="J14">
-        <v>0.001264159975031318</v>
+        <v>0.001874750541781658</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.25600522776416</v>
+        <v>5.397241999999999</v>
       </c>
       <c r="N14">
-        <v>5.25600522776416</v>
+        <v>16.191726</v>
       </c>
       <c r="O14">
-        <v>0.4626153523136182</v>
+        <v>0.4331003391330405</v>
       </c>
       <c r="P14">
-        <v>0.4626153523136182</v>
+        <v>0.4331003391330406</v>
       </c>
       <c r="Q14">
-        <v>1.755655131274714</v>
+        <v>2.770559039537333</v>
       </c>
       <c r="R14">
-        <v>1.755655131274714</v>
+        <v>24.935031355836</v>
       </c>
       <c r="S14">
-        <v>0.000584819812229888</v>
+        <v>0.0008119550954354876</v>
       </c>
       <c r="T14">
-        <v>0.000584819812229888</v>
+        <v>0.0008119550954354876</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.334028421813718</v>
+        <v>0.5133286666666667</v>
       </c>
       <c r="H15">
-        <v>0.334028421813718</v>
+        <v>1.539986</v>
       </c>
       <c r="I15">
-        <v>0.001264159975031318</v>
+        <v>0.001874750541781658</v>
       </c>
       <c r="J15">
-        <v>0.001264159975031318</v>
+        <v>0.001874750541781658</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.37057035224949</v>
+        <v>4.372979</v>
       </c>
       <c r="N15">
-        <v>4.37057035224949</v>
+        <v>13.118937</v>
       </c>
       <c r="O15">
-        <v>0.3846824452603219</v>
+        <v>0.3509086099755513</v>
       </c>
       <c r="P15">
-        <v>0.3846824452603219</v>
+        <v>0.3509086099755513</v>
       </c>
       <c r="Q15">
-        <v>1.459894717187723</v>
+        <v>2.244775479431333</v>
       </c>
       <c r="R15">
-        <v>1.459894717187723</v>
+        <v>20.202979314882</v>
       </c>
       <c r="S15">
-        <v>0.000486300150395275</v>
+        <v>0.0006578661066675134</v>
       </c>
       <c r="T15">
-        <v>0.000486300150395275</v>
+        <v>0.0006578661066675133</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.334028421813718</v>
+        <v>0.5133286666666667</v>
       </c>
       <c r="H16">
-        <v>0.334028421813718</v>
+        <v>1.539986</v>
       </c>
       <c r="I16">
-        <v>0.001264159975031318</v>
+        <v>0.001874750541781658</v>
       </c>
       <c r="J16">
-        <v>0.001264159975031318</v>
+        <v>0.001874750541781658</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.519775026349899</v>
+        <v>0.59901</v>
       </c>
       <c r="N16">
-        <v>0.519775026349899</v>
+        <v>1.79703</v>
       </c>
       <c r="O16">
-        <v>0.04574879523873034</v>
+        <v>0.04806740815847847</v>
       </c>
       <c r="P16">
-        <v>0.04574879523873034</v>
+        <v>0.04806740815847847</v>
       </c>
       <c r="Q16">
-        <v>0.1736196317498405</v>
+        <v>0.30748900462</v>
       </c>
       <c r="R16">
-        <v>0.1736196317498405</v>
+        <v>2.76740104158</v>
       </c>
       <c r="S16">
-        <v>5.783379584670623E-05</v>
+        <v>9.01143994871476E-05</v>
       </c>
       <c r="T16">
-        <v>5.783379584670623E-05</v>
+        <v>9.01143994871476E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.334028421813718</v>
+        <v>0.5133286666666667</v>
       </c>
       <c r="H17">
-        <v>0.334028421813718</v>
+        <v>1.539986</v>
       </c>
       <c r="I17">
-        <v>0.001264159975031318</v>
+        <v>0.001874750541781658</v>
       </c>
       <c r="J17">
-        <v>0.001264159975031318</v>
+        <v>0.001874750541781658</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.21515134439961</v>
+        <v>2.092643333333333</v>
       </c>
       <c r="N17">
-        <v>1.21515134439961</v>
+        <v>6.27793</v>
       </c>
       <c r="O17">
-        <v>0.1069534071873294</v>
+        <v>0.1679236427329297</v>
       </c>
       <c r="P17">
-        <v>0.1069534071873294</v>
+        <v>0.1679236427329297</v>
       </c>
       <c r="Q17">
-        <v>0.4058950858346195</v>
+        <v>1.074213812108889</v>
       </c>
       <c r="R17">
-        <v>0.4058950858346195</v>
+        <v>9.667924308979998</v>
       </c>
       <c r="S17">
-        <v>0.0001352062165594488</v>
+        <v>0.0003148149401915096</v>
       </c>
       <c r="T17">
-        <v>0.0001352062165594488</v>
+        <v>0.0003148149401915096</v>
       </c>
     </row>
   </sheetData>
